--- a/testSubtaskOneSheet.xlsx
+++ b/testSubtaskOneSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="71">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve">''Y23.4.8 - E2E Testing &amp; Acceptance''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barleen</t>
   </si>
 </sst>
 </file>
@@ -487,11 +484,11 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="23:23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="3" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="3" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="23.02"/>
@@ -724,7 +721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="false">
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -785,7 +782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
@@ -846,7 +843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>43</v>
       </c>
@@ -907,7 +904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
@@ -968,7 +965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>48</v>
       </c>
@@ -1029,7 +1026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
@@ -1090,7 +1087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
@@ -1151,7 +1148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1212,7 +1209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>57</v>
       </c>
@@ -1273,7 +1270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>58</v>
       </c>
@@ -1334,7 +1331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="2" collapsed="true">
+    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>60</v>
       </c>
@@ -1395,7 +1392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>61</v>
       </c>
@@ -1456,7 +1453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>62</v>
       </c>
@@ -1517,7 +1514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>63</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -1639,7 +1636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A18" s="8" t="s">
         <v>65</v>
       </c>
@@ -1700,7 +1697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>67</v>
       </c>
@@ -1761,7 +1758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>68</v>
       </c>
@@ -1822,7 +1819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>69</v>
       </c>
@@ -1883,7 +1880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="19.5" hidden="true" customHeight="true" outlineLevel="3" collapsed="false">
+    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="3" collapsed="false">
       <c r="A22" s="8" t="s">
         <v>70</v>
       </c>
@@ -1944,64 +1941,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="true">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>44414.2291666667</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>44438.2291666667</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>44414.2291666667</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>44438.2291666667</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>71</v>
-      </c>
+    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="J23" s="7"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
